--- a/Data/Master_Data/Kyle_Walker-Peters.xlsx
+++ b/Data/Master_Data/Kyle_Walker-Peters.xlsx
@@ -134,8 +134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -189,12 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>42960</v>
+        <v>43687</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -631,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -658,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -670,32 +672,32 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>15.2</v>
+        <v>20.2</v>
       </c>
       <c r="V2">
-        <v>20.7</v>
+        <v>19.3</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
         <v>2</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>13</v>
-      </c>
       <c r="AC2">
         <v>0</v>
       </c>
@@ -703,31 +705,31 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI2">
         <v>2</v>
       </c>
       <c r="AJ2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>-60</v>
+        <v>100</v>
       </c>
       <c r="AL2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AM2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -735,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>42967</v>
+        <v>43694</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -762,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -777,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -789,55 +791,64 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>2</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>-2</v>
       </c>
       <c r="AK3">
-        <v>-90</v>
+        <v>-290</v>
       </c>
       <c r="AL3">
-        <v>-170</v>
+        <v>-210</v>
       </c>
       <c r="AM3">
-        <v>-150</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -845,16 +856,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>42974</v>
+        <v>43702</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -866,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -887,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -899,55 +910,64 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.1</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM4">
-        <v>-10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -955,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>42987</v>
+        <v>43709</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1024,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1045,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>-1</v>
       </c>
       <c r="AK5">
+        <v>-140</v>
+      </c>
+      <c r="AL5">
+        <v>-120</v>
+      </c>
+      <c r="AM5">
         <v>-70</v>
-      </c>
-      <c r="AL5">
-        <v>-60</v>
-      </c>
-      <c r="AM5">
-        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1065,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>42994</v>
+        <v>43722</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1137,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1155,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL6">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="AM6">
-        <v>-50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1175,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43001</v>
+        <v>43729</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1244,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>2</v>
@@ -1253,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1265,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>-10</v>
+        <v>-170</v>
       </c>
       <c r="AL7">
-        <v>40</v>
+        <v>-100</v>
       </c>
       <c r="AM7">
-        <v>40</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1285,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43008</v>
+        <v>43736</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1294,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1342,61 +1362,52 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>8</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>-10</v>
+        <v>110</v>
       </c>
       <c r="AL8">
-        <v>-50</v>
+        <v>30</v>
       </c>
       <c r="AM8">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1404,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43022</v>
+        <v>43743</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1476,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1494,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>120</v>
+        <v>-10</v>
       </c>
       <c r="AL9">
+        <v>-50</v>
+      </c>
+      <c r="AM9">
         <v>40</v>
-      </c>
-      <c r="AM9">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1514,7 +1525,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43030</v>
+        <v>43757</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1586,37 +1597,37 @@
         <v>1</v>
       </c>
       <c r="Z10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10">
+        <v>18</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
         <v>10</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>3</v>
-      </c>
-      <c r="AJ10">
-        <v>-3</v>
-      </c>
-      <c r="AK10">
-        <v>-210</v>
-      </c>
       <c r="AL10">
-        <v>-250</v>
+        <v>-40</v>
       </c>
       <c r="AM10">
-        <v>-230</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1624,7 +1635,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43036</v>
+        <v>43765</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1693,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1720,13 +1731,13 @@
         <v>-2</v>
       </c>
       <c r="AK11">
-        <v>-190</v>
+        <v>-300</v>
       </c>
       <c r="AL11">
-        <v>-220</v>
+        <v>-260</v>
       </c>
       <c r="AM11">
-        <v>-110</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1734,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43044</v>
+        <v>43772</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1803,16 +1814,16 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1824,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>20</v>
+        <v>-60</v>
       </c>
       <c r="AL12">
-        <v>-110</v>
+        <v>-50</v>
       </c>
       <c r="AM12">
-        <v>60</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1844,7 +1855,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>43057</v>
+        <v>43778</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1913,16 +1924,16 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1934,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>-150</v>
+        <v>-50</v>
       </c>
       <c r="AL13">
-        <v>-130</v>
+        <v>-100</v>
       </c>
       <c r="AM13">
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1954,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>43064</v>
+        <v>43792</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -2023,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>19</v>
@@ -2044,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM14">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -2064,7 +2075,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>43067</v>
+        <v>43799</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2133,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2154,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>-180</v>
+        <v>130</v>
       </c>
       <c r="AL15">
-        <v>-110</v>
+        <v>50</v>
       </c>
       <c r="AM15">
-        <v>-140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2174,7 +2185,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>43071</v>
+        <v>43803</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2246,13 +2257,13 @@
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2264,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ16">
         <v>-1</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="AL16">
-        <v>-80</v>
+        <v>-210</v>
       </c>
       <c r="AM16">
-        <v>50</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -2284,7 +2295,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>43078</v>
+        <v>43806</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2353,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>5</v>
@@ -2362,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="AB17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2374,19 +2385,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AL17">
-        <v>-60</v>
+        <v>10</v>
       </c>
       <c r="AM17">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -2394,7 +2405,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>43082</v>
+        <v>43814</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2463,16 +2474,16 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2484,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK18">
-        <v>130</v>
+        <v>-190</v>
       </c>
       <c r="AL18">
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AM18">
-        <v>70</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -2504,7 +2515,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>43085</v>
+        <v>43821</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -2573,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2594,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AJ19">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK19">
-        <v>-300</v>
+        <v>-80</v>
       </c>
       <c r="AL19">
-        <v>-220</v>
+        <v>-160</v>
       </c>
       <c r="AM19">
-        <v>-250</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -2614,7 +2625,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>43092</v>
+        <v>43825</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -2683,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
         <v>4</v>
@@ -2704,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>-80</v>
+        <v>140</v>
       </c>
       <c r="AL20">
-        <v>-90</v>
+        <v>-20</v>
       </c>
       <c r="AM20">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -2724,7 +2735,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>43095</v>
+        <v>43827</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2796,10 +2807,10 @@
         <v>2</v>
       </c>
       <c r="Z21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>14</v>
@@ -2814,19 +2825,19 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AL21">
         <v>20</v>
       </c>
       <c r="AM21">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -2834,10 +2845,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>43104</v>
+        <v>43831</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2903,16 +2914,16 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2924,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ22">
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>110</v>
+        <v>-110</v>
       </c>
       <c r="AL22">
-        <v>40</v>
+        <v>-30</v>
       </c>
       <c r="AM22">
-        <v>-50</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -2944,7 +2955,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>43102</v>
+        <v>43841</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3013,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3034,19 +3045,19 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK23">
-        <v>-120</v>
+        <v>-200</v>
       </c>
       <c r="AL23">
-        <v>-90</v>
+        <v>-240</v>
       </c>
       <c r="AM23">
-        <v>40</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -3054,7 +3065,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>43113</v>
+        <v>43848</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -3126,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3144,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>-100</v>
+        <v>10</v>
       </c>
       <c r="AL24">
-        <v>-140</v>
+        <v>-70</v>
       </c>
       <c r="AM24">
-        <v>-80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:39">
@@ -3164,7 +3175,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>43121</v>
+        <v>43851</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -3233,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3254,19 +3265,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>-120</v>
+        <v>-90</v>
       </c>
       <c r="AL25">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="AM25">
-        <v>-40</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -3274,7 +3285,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>43131</v>
+        <v>43862</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3346,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3364,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="AJ26">
         <v>-2</v>
       </c>
       <c r="AK26">
-        <v>-160</v>
+        <v>-300</v>
       </c>
       <c r="AL26">
         <v>-260</v>
       </c>
       <c r="AM26">
-        <v>-160</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -3384,16 +3395,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>43135</v>
+        <v>43876</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3405,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3426,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3438,55 +3449,64 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y27">
         <v>2</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
+        <v>5</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>9</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>-1</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>-30</v>
+      </c>
+      <c r="AL27">
         <v>10</v>
       </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>-3</v>
-      </c>
-      <c r="AK27">
-        <v>-310</v>
-      </c>
-      <c r="AL27">
-        <v>-270</v>
-      </c>
       <c r="AM27">
-        <v>-240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -3494,7 +3514,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>43141</v>
+        <v>43883</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3566,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3584,19 +3604,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ28">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL28">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM28">
-        <v>-100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -3604,7 +3624,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>43156</v>
+        <v>43890</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3676,13 +3696,13 @@
         <v>1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3694,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK29">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="AM29">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -3714,7 +3734,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>43162</v>
+        <v>43897</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3783,16 +3803,16 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>1</v>
       </c>
       <c r="AB30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3804,57 +3824,57 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ30">
         <v>0</v>
       </c>
       <c r="AK30">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="AL30">
-        <v>-20</v>
+        <v>40</v>
       </c>
       <c r="AM30">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>43170</v>
+      <c r="B31" s="3">
+        <v>43687</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3878,52 +3898,61 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Y31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>2</v>
       </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
       <c r="AF31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG31">
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AL31">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AM31">
         <v>70</v>
@@ -3933,17 +3962,17 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>43191</v>
+      <c r="B32" s="3">
+        <v>43694</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3961,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3976,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3988,72 +4017,81 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG32">
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
         <v>-2</v>
       </c>
       <c r="AK32">
-        <v>-190</v>
+        <v>-290</v>
       </c>
       <c r="AL32">
-        <v>-200</v>
+        <v>-210</v>
       </c>
       <c r="AM32">
-        <v>-150</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>43197</v>
+      <c r="B33" s="3">
+        <v>43702</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4065,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4086,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -4098,66 +4136,75 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>13</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0.1</v>
+      </c>
+      <c r="AF33">
+        <v>12</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
         <v>2</v>
       </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>15</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
       <c r="AI33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ33">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>-150</v>
+        <v>50</v>
       </c>
       <c r="AL33">
-        <v>-60</v>
+        <v>40</v>
       </c>
       <c r="AM33">
-        <v>-130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>43204</v>
+      <c r="B34" s="3">
+        <v>43709</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4223,16 +4270,16 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4244,30 +4291,30 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK34">
-        <v>-200</v>
+        <v>-140</v>
       </c>
       <c r="AL34">
-        <v>-200</v>
+        <v>-120</v>
       </c>
       <c r="AM34">
-        <v>-220</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>43207</v>
+      <c r="B35" s="3">
+        <v>43722</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4333,16 +4380,16 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4354,30 +4401,30 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ35">
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>-20</v>
+        <v>30</v>
       </c>
       <c r="AL35">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="AM35">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>43220</v>
+      <c r="B36" s="3">
+        <v>43729</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4443,16 +4490,16 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36">
         <v>2</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4464,30 +4511,30 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="AL36">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="AM36">
-        <v>-50</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>43225</v>
+      <c r="B37" s="3">
+        <v>43736</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4553,16 +4600,16 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4574,30 +4621,30 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ37">
         <v>0</v>
       </c>
       <c r="AK37">
-        <v>-100</v>
+        <v>110</v>
       </c>
       <c r="AL37">
-        <v>-20</v>
+        <v>30</v>
       </c>
       <c r="AM37">
-        <v>-20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>43229</v>
+      <c r="B38" s="3">
+        <v>43743</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4666,13 +4713,13 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4684,39 +4731,39 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AJ38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK38">
+        <v>-10</v>
+      </c>
+      <c r="AL38">
+        <v>-50</v>
+      </c>
+      <c r="AM38">
         <v>40</v>
-      </c>
-      <c r="AL38">
-        <v>30</v>
-      </c>
-      <c r="AM38">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>43233</v>
+      <c r="B39" s="3">
+        <v>43757</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4725,16 +4772,16 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4746,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -4758,75 +4805,66 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>51.8</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>27.3</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>9</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>1.3</v>
+        <v>18</v>
       </c>
       <c r="AF39">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AG39">
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="AL39">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="AM39">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>43323</v>
+      <c r="B40" s="3">
+        <v>43765</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4892,16 +4930,16 @@
         <v>0</v>
       </c>
       <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
         <v>2</v>
       </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
       <c r="AA40">
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4913,30 +4951,30 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ40">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK40">
-        <v>150</v>
+        <v>-300</v>
       </c>
       <c r="AL40">
-        <v>100</v>
+        <v>-260</v>
       </c>
       <c r="AM40">
-        <v>160</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>43330</v>
+      <c r="B41" s="3">
+        <v>43772</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5005,13 +5043,13 @@
         <v>1</v>
       </c>
       <c r="Z41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -5023,30 +5061,30 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>200</v>
+        <v>-60</v>
       </c>
       <c r="AL41">
-        <v>30</v>
+        <v>-50</v>
       </c>
       <c r="AM41">
-        <v>200</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>43339</v>
+      <c r="B42" s="3">
+        <v>43778</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5112,16 +5150,16 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -5133,30 +5171,30 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
         <v>0</v>
       </c>
       <c r="AK42">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="AL42">
-        <v>-130</v>
+        <v>-100</v>
       </c>
       <c r="AM42">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>43345</v>
+      <c r="B43" s="3">
+        <v>43792</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5222,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z43">
         <v>2</v>
@@ -5231,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5243,30 +5281,30 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ43">
         <v>1</v>
       </c>
       <c r="AK43">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AL43">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AM43">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
-        <v>43358</v>
+      <c r="B44" s="3">
+        <v>43799</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -5335,13 +5373,13 @@
         <v>2</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA44">
         <v>1</v>
       </c>
       <c r="AB44">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -5353,30 +5391,30 @@
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK44">
-        <v>-170</v>
+        <v>130</v>
       </c>
       <c r="AL44">
-        <v>-220</v>
+        <v>50</v>
       </c>
       <c r="AM44">
-        <v>-130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>43365</v>
+      <c r="B45" s="3">
+        <v>43803</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -5442,16 +5480,16 @@
         <v>0</v>
       </c>
       <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
         <v>2</v>
       </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
       <c r="AA45">
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -5463,30 +5501,30 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK45">
-        <v>190</v>
+        <v>-180</v>
       </c>
       <c r="AL45">
-        <v>30</v>
+        <v>-210</v>
       </c>
       <c r="AM45">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>43372</v>
+      <c r="B46" s="3">
+        <v>43806</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -5552,51 +5590,51 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
+        <v>5</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>5</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>-30</v>
+      </c>
+      <c r="AL46">
         <v>10</v>
       </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>2</v>
-      </c>
-      <c r="AJ46">
-        <v>3</v>
-      </c>
-      <c r="AK46">
-        <v>250</v>
-      </c>
-      <c r="AL46">
-        <v>90</v>
-      </c>
       <c r="AM46">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>43379</v>
+      <c r="B47" s="3">
+        <v>43814</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -5662,16 +5700,16 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z47">
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5686,27 +5724,27 @@
         <v>1</v>
       </c>
       <c r="AJ47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AK47">
-        <v>180</v>
+        <v>-190</v>
       </c>
       <c r="AL47">
-        <v>10</v>
+        <v>-130</v>
       </c>
       <c r="AM47">
-        <v>180</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>43393</v>
+      <c r="B48" s="3">
+        <v>43821</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -5772,16 +5810,16 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z48">
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5793,30 +5831,30 @@
         <v>0</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ48">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK48">
-        <v>200</v>
+        <v>-80</v>
       </c>
       <c r="AL48">
-        <v>130</v>
+        <v>-160</v>
       </c>
       <c r="AM48">
-        <v>110</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
-        <v>43402</v>
+      <c r="B49" s="3">
+        <v>43825</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -5885,13 +5923,13 @@
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA49">
         <v>1</v>
       </c>
       <c r="AB49">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5903,30 +5941,30 @@
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK49">
-        <v>-160</v>
+        <v>140</v>
       </c>
       <c r="AL49">
-        <v>-170</v>
+        <v>-20</v>
       </c>
       <c r="AM49">
-        <v>-120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
-        <v>43407</v>
+      <c r="B50" s="3">
+        <v>43827</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5992,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z50">
         <v>2</v>
@@ -6001,42 +6039,42 @@
         <v>0</v>
       </c>
       <c r="AB50">
+        <v>14</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <v>60</v>
+      </c>
+      <c r="AL50">
         <v>20</v>
       </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>1</v>
-      </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <v>10</v>
-      </c>
-      <c r="AL50">
-        <v>-50</v>
-      </c>
       <c r="AM50">
-        <v>-60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>43414</v>
+      <c r="B51" s="3">
+        <v>43831</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6102,16 +6140,16 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -6123,30 +6161,30 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51">
-        <v>110</v>
+        <v>-110</v>
       </c>
       <c r="AL51">
-        <v>50</v>
+        <v>-30</v>
       </c>
       <c r="AM51">
-        <v>100</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
-        <v>43428</v>
+      <c r="B52" s="3">
+        <v>43841</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6215,13 +6253,13 @@
         <v>1</v>
       </c>
       <c r="Z52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>1</v>
       </c>
       <c r="AB52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -6233,30 +6271,30 @@
         <v>0</v>
       </c>
       <c r="AI52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ52">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK52">
-        <v>-50</v>
+        <v>-200</v>
       </c>
       <c r="AL52">
-        <v>-140</v>
+        <v>-240</v>
       </c>
       <c r="AM52">
-        <v>-50</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>43436</v>
+      <c r="B53" s="3">
+        <v>43848</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -6322,16 +6360,16 @@
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -6343,30 +6381,30 @@
         <v>0</v>
       </c>
       <c r="AI53">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ53">
         <v>0</v>
       </c>
       <c r="AK53">
+        <v>10</v>
+      </c>
+      <c r="AL53">
+        <v>-70</v>
+      </c>
+      <c r="AM53">
         <v>60</v>
-      </c>
-      <c r="AL53">
-        <v>-40</v>
-      </c>
-      <c r="AM53">
-        <v>-10</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
-        <v>43439</v>
+      <c r="B54" s="3">
+        <v>43851</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -6432,16 +6470,16 @@
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6456,33 +6494,33 @@
         <v>2</v>
       </c>
       <c r="AJ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK54">
-        <v>140</v>
+        <v>-90</v>
       </c>
       <c r="AL54">
-        <v>50</v>
+        <v>-30</v>
       </c>
       <c r="AM54">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>43442</v>
+      <c r="B55" s="3">
+        <v>43862</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -6500,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -6515,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -6530,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -6539,69 +6577,60 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA55">
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>11</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG55">
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="AJ55">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK55">
-        <v>30</v>
+        <v>-300</v>
       </c>
       <c r="AL55">
-        <v>-20</v>
+        <v>-260</v>
       </c>
       <c r="AM55">
-        <v>-70</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
-        <v>43449</v>
+      <c r="B56" s="3">
+        <v>43876</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -6613,13 +6642,13 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -6634,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -6646,22 +6675,22 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z56">
         <v>1</v>
@@ -6670,42 +6699,51 @@
         <v>1</v>
       </c>
       <c r="AB56">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG56">
         <v>0</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ56">
         <v>0</v>
       </c>
       <c r="AK56">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AL56">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AM56">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>43457</v>
+      <c r="B57" s="3">
+        <v>43883</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -6771,16 +6809,16 @@
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z57">
         <v>2</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -6792,149 +6830,140 @@
         <v>0</v>
       </c>
       <c r="AI57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ57">
         <v>1</v>
       </c>
       <c r="AK57">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AL57">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AM57">
-        <v>-30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
-        <v>43460</v>
+      <c r="B58" s="3">
+        <v>43890</v>
       </c>
       <c r="C58">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>3</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
         <v>19</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>90</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>53.8</v>
-      </c>
-      <c r="V58">
-        <v>35.3</v>
-      </c>
-      <c r="W58">
-        <v>9</v>
-      </c>
-      <c r="X58">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>5</v>
-      </c>
-      <c r="AA58">
-        <v>1</v>
-      </c>
-      <c r="AB58">
-        <v>2</v>
-      </c>
-      <c r="AC58">
-        <v>0.3</v>
-      </c>
-      <c r="AD58">
-        <v>0.3</v>
-      </c>
-      <c r="AE58">
-        <v>0.2</v>
-      </c>
       <c r="AF58">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AG58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH58">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI58">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="AJ58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK58">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AL58">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AM58">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
-        <v>43463</v>
+      <c r="B59" s="3">
+        <v>43897</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7000,16 +7029,16 @@
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA59">
         <v>1</v>
       </c>
       <c r="AB59">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -7021,2035 +7050,19 @@
         <v>0</v>
       </c>
       <c r="AI59">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ59">
         <v>0</v>
       </c>
       <c r="AK59">
-        <v>-10</v>
+        <v>50</v>
       </c>
       <c r="AL59">
-        <v>-130</v>
+        <v>40</v>
       </c>
       <c r="AM59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C60">
-        <v>21</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>3</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>5</v>
-      </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>3</v>
-      </c>
-      <c r="AJ60">
-        <v>3</v>
-      </c>
-      <c r="AK60">
-        <v>200</v>
-      </c>
-      <c r="AL60">
-        <v>40</v>
-      </c>
-      <c r="AM60">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2">
-        <v>43478</v>
-      </c>
-      <c r="C61">
-        <v>22</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>1</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>1</v>
-      </c>
-      <c r="AB61">
-        <v>14</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>-1</v>
-      </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
-      <c r="AK61">
-        <v>-120</v>
-      </c>
-      <c r="AL61">
-        <v>-230</v>
-      </c>
-      <c r="AM61">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:39">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2">
-        <v>43485</v>
-      </c>
-      <c r="C62">
-        <v>23</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>2</v>
-      </c>
-      <c r="Z62">
-        <v>1</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>9</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>1</v>
-      </c>
-      <c r="AJ62">
-        <v>3</v>
-      </c>
-      <c r="AK62">
-        <v>220</v>
-      </c>
-      <c r="AL62">
-        <v>60</v>
-      </c>
-      <c r="AM62">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:39">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2">
-        <v>43495</v>
-      </c>
-      <c r="C63">
-        <v>24</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>1</v>
-      </c>
-      <c r="Z63">
-        <v>2</v>
-      </c>
-      <c r="AA63">
-        <v>1</v>
-      </c>
-      <c r="AB63">
-        <v>18</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>1</v>
-      </c>
-      <c r="AJ63">
-        <v>1</v>
-      </c>
-      <c r="AK63">
-        <v>40</v>
-      </c>
-      <c r="AL63">
-        <v>-20</v>
-      </c>
-      <c r="AM63">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:39">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2">
-        <v>43498</v>
-      </c>
-      <c r="C64">
-        <v>25</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>1</v>
-      </c>
-      <c r="AA64">
-        <v>1</v>
-      </c>
-      <c r="AB64">
-        <v>15</v>
-      </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>1</v>
-      </c>
-      <c r="AJ64">
-        <v>1</v>
-      </c>
-      <c r="AK64">
-        <v>80</v>
-      </c>
-      <c r="AL64">
-        <v>60</v>
-      </c>
-      <c r="AM64">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" spans="1:39">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2">
-        <v>43506</v>
-      </c>
-      <c r="C65">
-        <v>26</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>2</v>
-      </c>
-      <c r="V65">
-        <v>0.3</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0.2</v>
-      </c>
-      <c r="Y65">
-        <v>1</v>
-      </c>
-      <c r="Z65">
-        <v>3</v>
-      </c>
-      <c r="AA65">
-        <v>1</v>
-      </c>
-      <c r="AB65">
-        <v>11</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <v>5</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>1</v>
-      </c>
-      <c r="AI65">
-        <v>2</v>
-      </c>
-      <c r="AJ65">
-        <v>1</v>
-      </c>
-      <c r="AK65">
-        <v>20</v>
-      </c>
-      <c r="AL65">
-        <v>20</v>
-      </c>
-      <c r="AM65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:39">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2">
-        <v>43519</v>
-      </c>
-      <c r="C66">
-        <v>27</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-      <c r="Z66">
-        <v>2</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>4</v>
-      </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-      <c r="AI66">
-        <v>-1</v>
-      </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
-      <c r="AK66">
-        <v>130</v>
-      </c>
-      <c r="AL66">
-        <v>0</v>
-      </c>
-      <c r="AM66">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:39">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2">
-        <v>43523</v>
-      </c>
-      <c r="C67">
-        <v>28</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>2</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>6</v>
-      </c>
-      <c r="AF67">
-        <v>0</v>
-      </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-      <c r="AI67">
-        <v>-2</v>
-      </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
-      <c r="AK67">
-        <v>20</v>
-      </c>
-      <c r="AL67">
-        <v>-110</v>
-      </c>
-      <c r="AM67">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:39">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2">
-        <v>43526</v>
-      </c>
-      <c r="C68">
-        <v>29</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-      <c r="Z68">
-        <v>1</v>
-      </c>
-      <c r="AA68">
-        <v>1</v>
-      </c>
-      <c r="AB68">
-        <v>1</v>
-      </c>
-      <c r="AF68">
-        <v>0</v>
-      </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
-      <c r="AK68">
-        <v>-60</v>
-      </c>
-      <c r="AL68">
-        <v>-70</v>
-      </c>
-      <c r="AM68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:39">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2">
-        <v>43533</v>
-      </c>
-      <c r="C69">
-        <v>30</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>90</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>2</v>
-      </c>
-      <c r="K69">
-        <v>3</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>2</v>
-      </c>
-      <c r="U69">
-        <v>17.8</v>
-      </c>
-      <c r="V69">
-        <v>7.3</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>2.5</v>
-      </c>
-      <c r="Y69">
-        <v>1</v>
-      </c>
-      <c r="Z69">
-        <v>2</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>16</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <v>9</v>
-      </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-      <c r="AI69">
-        <v>-1</v>
-      </c>
-      <c r="AJ69">
-        <v>1</v>
-      </c>
-      <c r="AK69">
-        <v>90</v>
-      </c>
-      <c r="AL69">
-        <v>50</v>
-      </c>
-      <c r="AM69">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:39">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2">
-        <v>43555</v>
-      </c>
-      <c r="C70">
-        <v>32</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>1</v>
-      </c>
-      <c r="Z70">
-        <v>2</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>12</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-      <c r="AI70">
-        <v>-1</v>
-      </c>
-      <c r="AJ70">
-        <v>-1</v>
-      </c>
-      <c r="AK70">
-        <v>-100</v>
-      </c>
-      <c r="AL70">
-        <v>-180</v>
-      </c>
-      <c r="AM70">
-        <v>-170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:39">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2">
-        <v>43558</v>
-      </c>
-      <c r="C71">
-        <v>32</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>2</v>
-      </c>
-      <c r="AA71">
-        <v>1</v>
-      </c>
-      <c r="AB71">
-        <v>7</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>2</v>
-      </c>
-      <c r="AJ71">
-        <v>1</v>
-      </c>
-      <c r="AK71">
-        <v>60</v>
-      </c>
-      <c r="AL71">
-        <v>-80</v>
-      </c>
-      <c r="AM71">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:39">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2">
-        <v>43568</v>
-      </c>
-      <c r="C72">
-        <v>34</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>90</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>2</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>18.8</v>
-      </c>
-      <c r="V72">
-        <v>58.6</v>
-      </c>
-      <c r="W72">
-        <v>6</v>
-      </c>
-      <c r="X72">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>4</v>
-      </c>
-      <c r="AA72">
-        <v>1</v>
-      </c>
-      <c r="AB72">
-        <v>10</v>
-      </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>0.4</v>
-      </c>
-      <c r="AF72">
-        <v>32</v>
-      </c>
-      <c r="AG72">
-        <v>1</v>
-      </c>
-      <c r="AH72">
-        <v>7</v>
-      </c>
-      <c r="AI72">
-        <v>4</v>
-      </c>
-      <c r="AJ72">
-        <v>3</v>
-      </c>
-      <c r="AK72">
-        <v>230</v>
-      </c>
-      <c r="AL72">
-        <v>60</v>
-      </c>
-      <c r="AM72">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:39">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2">
-        <v>43578</v>
-      </c>
-      <c r="C73">
-        <v>35</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>1</v>
-      </c>
-      <c r="AA73">
-        <v>1</v>
-      </c>
-      <c r="AB73">
-        <v>3</v>
-      </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
-      <c r="AG73">
-        <v>0</v>
-      </c>
-      <c r="AH73">
-        <v>0</v>
-      </c>
-      <c r="AI73">
-        <v>1</v>
-      </c>
-      <c r="AJ73">
-        <v>2</v>
-      </c>
-      <c r="AK73">
-        <v>170</v>
-      </c>
-      <c r="AL73">
-        <v>0</v>
-      </c>
-      <c r="AM73">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:39">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2">
-        <v>43575</v>
-      </c>
-      <c r="C74">
-        <v>35</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>1</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <v>13</v>
-      </c>
-      <c r="AF74">
-        <v>0</v>
-      </c>
-      <c r="AG74">
-        <v>0</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-      <c r="AI74">
-        <v>-1</v>
-      </c>
-      <c r="AJ74">
-        <v>-1</v>
-      </c>
-      <c r="AK74">
-        <v>-90</v>
-      </c>
-      <c r="AL74">
-        <v>-130</v>
-      </c>
-      <c r="AM74">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:39">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
-        <v>43582</v>
-      </c>
-      <c r="C75">
-        <v>36</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>1</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>1</v>
-      </c>
-      <c r="AB75">
-        <v>19</v>
-      </c>
-      <c r="AF75">
-        <v>0</v>
-      </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
-      <c r="AI75">
-        <v>-1</v>
-      </c>
-      <c r="AJ75">
-        <v>2</v>
-      </c>
-      <c r="AK75">
-        <v>150</v>
-      </c>
-      <c r="AL75">
-        <v>70</v>
-      </c>
-      <c r="AM75">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:39">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2">
-        <v>43589</v>
-      </c>
-      <c r="C76">
-        <v>37</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>1</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>2</v>
-      </c>
-      <c r="AF76">
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <v>0</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-      <c r="AI76">
-        <v>-1</v>
-      </c>
-      <c r="AJ76">
-        <v>2</v>
-      </c>
-      <c r="AK76">
-        <v>220</v>
-      </c>
-      <c r="AL76">
-        <v>140</v>
-      </c>
-      <c r="AM76">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:39">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
-        <v>43597</v>
-      </c>
-      <c r="C77">
-        <v>38</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>90</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77">
-        <v>2</v>
-      </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>2</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>2</v>
-      </c>
-      <c r="U77">
-        <v>7.6</v>
-      </c>
-      <c r="V77">
-        <v>3.4</v>
-      </c>
-      <c r="W77">
-        <v>5</v>
-      </c>
-      <c r="X77">
-        <v>1.6</v>
-      </c>
-      <c r="Y77">
-        <v>2</v>
-      </c>
-      <c r="Z77">
-        <v>2</v>
-      </c>
-      <c r="AA77">
-        <v>1</v>
-      </c>
-      <c r="AB77">
-        <v>8</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77">
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <v>0</v>
-      </c>
-      <c r="AF77">
-        <v>11</v>
-      </c>
-      <c r="AG77">
-        <v>0</v>
-      </c>
-      <c r="AH77">
-        <v>1</v>
-      </c>
-      <c r="AI77">
-        <v>0</v>
-      </c>
-      <c r="AJ77">
-        <v>1</v>
-      </c>
-      <c r="AK77">
-        <v>-60</v>
-      </c>
-      <c r="AL77">
-        <v>-110</v>
-      </c>
-      <c r="AM77">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
